--- a/metrics/MAPE/upto time/Microalbuminuria (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Microalbuminuria (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3229863639195.129</v>
+        <v>3511278554132.279</v>
       </c>
       <c r="C3" t="n">
-        <v>3720300226124.016</v>
+        <v>3464434945007.865</v>
       </c>
       <c r="D3" t="n">
-        <v>3990718105085.726</v>
+        <v>3791746003302.619</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4586000109258.011</v>
+        <v>4705407460324.28</v>
       </c>
       <c r="C4" t="n">
-        <v>4766429352788.689</v>
+        <v>4628007408260.648</v>
       </c>
       <c r="D4" t="n">
-        <v>4617274059947.565</v>
+        <v>4646360924902.093</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241451265330549.2</v>
+        <v>153698724068581.2</v>
       </c>
       <c r="C5" t="n">
-        <v>158435725730286.1</v>
+        <v>175781228483676</v>
       </c>
       <c r="D5" t="n">
-        <v>133089017700580.5</v>
+        <v>146668276927253.4</v>
       </c>
     </row>
   </sheetData>
